--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2003.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2003.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>20264.650000000001</t>
+          <t>20264.65</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>6227.7600000000002</t>
+          <t>6227.76</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>20.530000000000001</t>
+          <t>20.53</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>3113.8800000000001</t>
+          <t>3113.88</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>18.190000000000001</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>14012.459999999999</t>
+          <t>14012.46</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>30938.419999999998</t>
+          <t>30938.42</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>76.549999999999997</t>
+          <t>76.55</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>331.10000000000002</t>
+          <t>331.1</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>8947.0499999999993</t>
+          <t>8947.05</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>3020.6799999999998</t>
+          <t>3020.68</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>8068.3199999999997</t>
+          <t>8068.32</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>1240.3299999999999</t>
+          <t>1240.33</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>25113.700000000001</t>
+          <t>25113.7</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>67.930000000000007</t>
+          <t>67.93</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>141.58000000000001</t>
+          <t>141.58</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>518.70000000000005</t>
+          <t>518.7</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>131.15000000000001</t>
+          <t>131.15</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>1158.1199999999999</t>
+          <t>1158.12</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>1214.8599999999999</t>
+          <t>1214.86</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>12043.530000000001</t>
+          <t>12043.53</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>616.44000000000005</t>
+          <t>616.44</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>61.149999999999999</t>
+          <t>61.15</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>2776.5599999999999</t>
+          <t>2776.56</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>272119.40000000002</t>
+          <t>272119.4</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>22399.310000000001</t>
+          <t>22399.31</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>515463.59000000003</t>
+          <t>515463.59</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>29583.470000000001</t>
+          <t>29583.47</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>5803.5100000000002</t>
+          <t>5803.51</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>3497.1300000000001</t>
+          <t>3497.13</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>46.299999999999997</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>222.91999999999999</t>
+          <t>222.92</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>81543.649999999994</t>
+          <t>81543.65</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>405.10000000000002</t>
+          <t>405.1</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>4538.8800000000001</t>
+          <t>4538.88</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>131.21000000000001</t>
+          <t>131.21</t>
         </is>
       </c>
       <c r="E104" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>23985.869999999999</t>
+          <t>23985.87</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>15702.860000000001</t>
+          <t>15702.86</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>777318.95999999996</t>
+          <t>777318.96</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>142384.04000000001</t>
+          <t>142384.04</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>8238.2299999999996</t>
+          <t>8238.23</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
-          <t>6513.7700000000004</t>
+          <t>6513.77</t>
         </is>
       </c>
       <c r="E123" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>144.55000000000001</t>
+          <t>144.55</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>52018.739999999998</t>
+          <t>52018.74</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D154" s="0" t="inlineStr">
         <is>
-          <t>2691.0500000000002</t>
+          <t>2691.05</t>
         </is>
       </c>
       <c r="E154" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>6696131.1100000003</t>
+          <t>6696131.11</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>4167507.1899999999</t>
+          <t>4167507.19</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>1775122.9399999999</t>
+          <t>1775122.94</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>135793.17000000001</t>
+          <t>135793.17</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>62549.870000000003</t>
+          <t>62549.87</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>212884.57000000001</t>
+          <t>212884.57</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>42991.559999999998</t>
+          <t>42991.56</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>734780.14000000001</t>
+          <t>734780.14</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>8098.4399999999996</t>
+          <t>8098.44</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>4996141.5099999998</t>
+          <t>4996141.51</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>630784.18999999994</t>
+          <t>630784.19</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>68624.179999999993</t>
+          <t>68624.18</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>94617.860000000001</t>
+          <t>94617.86</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>90942.789999999994</t>
+          <t>90942.79</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>48927.519999999997</t>
+          <t>48927.52</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>65146.480000000003</t>
+          <t>65146.48</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>20979.650000000001</t>
+          <t>20979.65</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>390367.90999999997</t>
+          <t>390367.91</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>39855.629999999997</t>
+          <t>39855.63</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>37523.800000000003</t>
+          <t>37523.8</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>26023.290000000001</t>
+          <t>26023.29</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>49962.769999999997</t>
+          <t>49962.77</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>44938.839999999997</t>
+          <t>44938.84</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>41911.410000000003</t>
+          <t>41911.41</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>909076.80000000005</t>
+          <t>909076.8</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>8030.8400000000001</t>
+          <t>8030.84</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>10878.540000000001</t>
+          <t>10878.54</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>206735.07999999999</t>
+          <t>206735.08</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>5668.4799999999996</t>
+          <t>5668.48</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>32902.959999999999</t>
+          <t>32902.96</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>3035.1799999999998</t>
+          <t>3035.18</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D213" s="0" t="inlineStr">
         <is>
-          <t>15444.940000000001</t>
+          <t>15444.94</t>
         </is>
       </c>
       <c r="E213" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>12188.950000000001</t>
+          <t>12188.95</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>6629.1000000000004</t>
+          <t>6629.1</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>7445.9899999999998</t>
+          <t>7445.99</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>25224.790000000001</t>
+          <t>25224.79</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>16.370000000000001</t>
+          <t>16.37</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>2508.3200000000002</t>
+          <t>2508.32</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>39326.370000000003</t>
+          <t>39326.37</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>3619.8099999999999</t>
+          <t>3619.81</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>104723.24000000001</t>
+          <t>104723.24</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>7433721.1200000001</t>
+          <t>7433721.12</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>16283.200000000001</t>
+          <t>16283.2</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>21159.560000000001</t>
+          <t>21159.56</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>286.81999999999999</t>
+          <t>286.82</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t>2584.8200000000002</t>
+          <t>2584.82</t>
         </is>
       </c>
       <c r="E242" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>4494.3999999999996</t>
+          <t>4494.4</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>8937.3400000000001</t>
+          <t>8937.34</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>1738.1700000000001</t>
+          <t>1738.17</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>2943.3499999999999</t>
+          <t>2943.35</t>
         </is>
       </c>
       <c r="E249" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>39161.050000000003</t>
+          <t>39161.05</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>245583.64000000001</t>
+          <t>245583.64</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="D259" s="0" t="inlineStr">
         <is>
-          <t>1123.5999999999999</t>
+          <t>1123.6</t>
         </is>
       </c>
       <c r="E259" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>4276.5299999999997</t>
+          <t>4276.53</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>6227.7600000000002</t>
+          <t>6227.76</t>
         </is>
       </c>
       <c r="E267" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>83.950000000000003</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>18681.220000000001</t>
+          <t>18681.22</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D277" s="0" t="inlineStr">
         <is>
-          <t>26.600000000000001</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="E277" s="0" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>2459.6300000000001</t>
+          <t>2459.63</t>
         </is>
       </c>
       <c r="E279" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>2905535.9500000002</t>
+          <t>2905535.95</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>5828.3400000000001</t>
+          <t>5828.34</t>
         </is>
       </c>
       <c r="E286" s="0" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>6403.7700000000004</t>
+          <t>6403.77</t>
         </is>
       </c>
       <c r="E292" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>414856.28000000003</t>
+          <t>414856.28</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>34549.910000000003</t>
+          <t>34549.91</t>
         </is>
       </c>
       <c r="E298" s="0" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D310" s="0" t="inlineStr">
         <is>
-          <t>2805.0300000000002</t>
+          <t>2805.03</t>
         </is>
       </c>
       <c r="E310" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>1593.3399999999999</t>
+          <t>1593.34</t>
         </is>
       </c>
       <c r="E314" s="0" t="inlineStr">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t>16972.599999999999</t>
+          <t>16972.6</t>
         </is>
       </c>
       <c r="E324" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>5793392.1500000004</t>
+          <t>5793392.15</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>131654.64000000001</t>
+          <t>131654.64</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>57007.889999999999</t>
+          <t>57007.89</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
-          <t>3834.4899999999998</t>
+          <t>3834.49</t>
         </is>
       </c>
       <c r="E332" s="0" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="D337" s="0" t="inlineStr">
         <is>
-          <t>10314.690000000001</t>
+          <t>10314.69</t>
         </is>
       </c>
       <c r="E337" s="0" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="D345" s="0" t="inlineStr">
         <is>
-          <t>4084.4400000000001</t>
+          <t>4084.44</t>
         </is>
       </c>
       <c r="E345" s="0" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="D356" s="0" t="inlineStr">
         <is>
-          <t>27.289999999999999</t>
+          <t>27.29</t>
         </is>
       </c>
       <c r="E356" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>8327.3999999999996</t>
+          <t>8327.4</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="D376" s="0" t="inlineStr">
         <is>
-          <t>47843.970000000001</t>
+          <t>47843.97</t>
         </is>
       </c>
       <c r="E376" s="0" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="D378" s="0" t="inlineStr">
         <is>
-          <t>3831.6900000000001</t>
+          <t>3831.69</t>
         </is>
       </c>
       <c r="E378" s="0" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="D395" s="0" t="inlineStr">
         <is>
-          <t>3.0800000000000001</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E395" s="0" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="D397" s="0" t="inlineStr">
         <is>
-          <t>798.69000000000005</t>
+          <t>798.69</t>
         </is>
       </c>
       <c r="E397" s="0" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="D401" s="0" t="inlineStr">
         <is>
-          <t>1242.8599999999999</t>
+          <t>1242.86</t>
         </is>
       </c>
       <c r="E401" s="0" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="D411" s="0" t="inlineStr">
         <is>
-          <t>14.369999999999999</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E411" s="0" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="D413" s="0" t="inlineStr">
         <is>
-          <t>7.1799999999999997</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="E413" s="0" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="D414" s="0" t="inlineStr">
         <is>
-          <t>65.719999999999999</t>
+          <t>65.72</t>
         </is>
       </c>
       <c r="E414" s="0" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="D431" s="0" t="inlineStr">
         <is>
-          <t>3110.7600000000002</t>
+          <t>3110.76</t>
         </is>
       </c>
       <c r="E431" s="0" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="D433" s="0" t="inlineStr">
         <is>
-          <t>1.5800000000000001</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E433" s="0" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="D441" s="0" t="inlineStr">
         <is>
-          <t>0.92000000000000004</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E441" s="0" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D442" s="0" t="inlineStr">
         <is>
-          <t>1300.0899999999999</t>
+          <t>1300.09</t>
         </is>
       </c>
       <c r="E442" s="0" t="inlineStr">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="D443" s="0" t="inlineStr">
         <is>
-          <t>3.6800000000000002</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="E443" s="0" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>384.10000000000002</t>
+          <t>384.1</t>
         </is>
       </c>
       <c r="E444" s="0" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="D450" s="0" t="inlineStr">
         <is>
-          <t>625.75999999999999</t>
+          <t>625.76</t>
         </is>
       </c>
       <c r="E450" s="0" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="D451" s="0" t="inlineStr">
         <is>
-          <t>1216.1600000000001</t>
+          <t>1216.16</t>
         </is>
       </c>
       <c r="E451" s="0" t="inlineStr">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="D485" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E485" s="0" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D496" s="0" t="inlineStr">
         <is>
-          <t>26.879999999999999</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="E496" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>65704.300000000003</t>
+          <t>65704.3</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="D509" s="0" t="inlineStr">
         <is>
-          <t>1537.8599999999999</t>
+          <t>1537.86</t>
         </is>
       </c>
       <c r="E509" s="0" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D510" s="0" t="inlineStr">
         <is>
-          <t>78.650000000000006</t>
+          <t>78.65</t>
         </is>
       </c>
       <c r="E510" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>956.85000000000002</t>
+          <t>956.85</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="D513" s="0" t="inlineStr">
         <is>
-          <t>129.18000000000001</t>
+          <t>129.18</t>
         </is>
       </c>
       <c r="E513" s="0" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="D514" s="0" t="inlineStr">
         <is>
-          <t>424.29000000000002</t>
+          <t>424.29</t>
         </is>
       </c>
       <c r="E514" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>436.16000000000003</t>
+          <t>436.16</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="D527" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E527" s="0" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>15878.959999999999</t>
+          <t>15878.96</t>
         </is>
       </c>
       <c r="E531" s="0" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="D533" s="0" t="inlineStr">
         <is>
-          <t>1771.6800000000001</t>
+          <t>1771.68</t>
         </is>
       </c>
       <c r="E533" s="0" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="D537" s="0" t="inlineStr">
         <is>
-          <t>579.22000000000003</t>
+          <t>579.22</t>
         </is>
       </c>
       <c r="E537" s="0" t="inlineStr">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="D549" s="0" t="inlineStr">
         <is>
-          <t>576019.56000000006</t>
+          <t>576019.56</t>
         </is>
       </c>
       <c r="E549" s="0" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="D551" s="0" t="inlineStr">
         <is>
-          <t>8917.0200000000004</t>
+          <t>8917.02</t>
         </is>
       </c>
       <c r="E551" s="0" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="D552" s="0" t="inlineStr">
         <is>
-          <t>79447.919999999998</t>
+          <t>79447.92</t>
         </is>
       </c>
       <c r="E552" s="0" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="D555" s="0" t="inlineStr">
         <is>
-          <t>400.08999999999997</t>
+          <t>400.09</t>
         </is>
       </c>
       <c r="E555" s="0" t="inlineStr">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="D559" s="0" t="inlineStr">
         <is>
-          <t>20.530000000000001</t>
+          <t>20.53</t>
         </is>
       </c>
       <c r="E559" s="0" t="inlineStr">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="D566" s="0" t="inlineStr">
         <is>
-          <t>2.2799999999999998</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E566" s="0" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="D570" s="0" t="inlineStr">
         <is>
-          <t>23.030000000000001</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E570" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>286063.73999999999</t>
+          <t>286063.74</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D594" s="0" t="inlineStr">
         <is>
-          <t>21.399999999999999</t>
+          <t>21.4</t>
         </is>
       </c>
       <c r="E594" s="0" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="D596" s="0" t="inlineStr">
         <is>
-          <t>3.7999999999999998</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E596" s="0" t="inlineStr">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="D600" s="0" t="inlineStr">
         <is>
-          <t>91334.139999999999</t>
+          <t>91334.14</t>
         </is>
       </c>
       <c r="E600" s="0" t="inlineStr">
@@ -17506,7 +17506,7 @@
       </c>
       <c r="D635" s="0" t="inlineStr">
         <is>
-          <t>1431.5799999999999</t>
+          <t>1431.58</t>
         </is>
       </c>
       <c r="E635" s="0" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="D641" s="0" t="inlineStr">
         <is>
-          <t>26.969999999999999</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="E641" s="0" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="D642" s="0" t="inlineStr">
         <is>
-          <t>158.34999999999999</t>
+          <t>158.35</t>
         </is>
       </c>
       <c r="E642" s="0" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="D659" s="0" t="inlineStr">
         <is>
-          <t>28178.189999999999</t>
+          <t>28178.19</t>
         </is>
       </c>
       <c r="E659" s="0" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="D669" s="0" t="inlineStr">
         <is>
-          <t>889.67999999999995</t>
+          <t>889.68</t>
         </is>
       </c>
       <c r="E669" s="0" t="inlineStr">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="D672" s="0" t="inlineStr">
         <is>
-          <t>417.97000000000003</t>
+          <t>417.97</t>
         </is>
       </c>
       <c r="E672" s="0" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="D673" s="0" t="inlineStr">
         <is>
-          <t>444.20999999999998</t>
+          <t>444.21</t>
         </is>
       </c>
       <c r="E673" s="0" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="D674" s="0" t="inlineStr">
         <is>
-          <t>1106.3599999999999</t>
+          <t>1106.36</t>
         </is>
       </c>
       <c r="E674" s="0" t="inlineStr">
@@ -19045,7 +19045,7 @@
       </c>
       <c r="D692" s="0" t="inlineStr">
         <is>
-          <t>5863.8000000000002</t>
+          <t>5863.8</t>
         </is>
       </c>
       <c r="E692" s="0" t="inlineStr">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="D694" s="0" t="inlineStr">
         <is>
-          <t>706.17999999999995</t>
+          <t>706.18</t>
         </is>
       </c>
       <c r="E694" s="0" t="inlineStr">
